--- a/Pórtico 2.xlsx
+++ b/Pórtico 2.xlsx
@@ -16,7 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -26,6 +26,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,21 +47,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,7 +312,7 @@
       <c r="F2" s="1">
         <v>1.0</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -325,7 +333,7 @@
       <c r="F3" s="1">
         <v>0.0</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -346,7 +354,7 @@
       <c r="F4" s="1">
         <v>0.0</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -373,11 +381,11 @@
       <c r="A6" s="1">
         <v>3.0</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7">
@@ -390,13 +398,13 @@
       <c r="C7" s="1">
         <v>2.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>4.0</v>
       </c>
-      <c r="E7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="1">
         <v>1.0</v>
       </c>
       <c r="G7" s="2"/>
@@ -411,13 +419,13 @@
       <c r="C8" s="3">
         <v>3.0</v>
       </c>
-      <c r="D8" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="1">
         <v>1.0</v>
       </c>
       <c r="G8" s="2"/>
@@ -432,13 +440,13 @@
       <c r="C9" s="1">
         <v>4.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>4.0</v>
       </c>
-      <c r="E9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="1">
         <v>1.0</v>
       </c>
       <c r="G9" s="2"/>
@@ -449,9 +457,9 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11">
@@ -464,9 +472,11 @@
       <c r="C11" s="1">
         <v>0.0</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12">
@@ -475,41 +485,43 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>2.0</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.0</v>
+      <c r="B13" s="5">
+        <v>1.0</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="1">
         <v>20.0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="1">
         <v>20.0</v>
       </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -518,46 +530,46 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
